--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6909810000000002</v>
+        <v>0.690981</v>
       </c>
       <c r="N2">
         <v>2.072943</v>
       </c>
       <c r="O2">
-        <v>0.8010798064371025</v>
+        <v>0.9906161271292202</v>
       </c>
       <c r="P2">
-        <v>0.8579689210526861</v>
+        <v>0.993724455114346</v>
       </c>
       <c r="Q2">
-        <v>1.321364117935</v>
+        <v>1.112068276305</v>
       </c>
       <c r="R2">
-        <v>11.892277061415</v>
+        <v>10.008614486745</v>
       </c>
       <c r="S2">
-        <v>0.1174199352121676</v>
+        <v>0.1361383491842516</v>
       </c>
       <c r="T2">
-        <v>0.1473761102128766</v>
+        <v>0.1572804555735979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.171581</v>
+        <v>0.0065455</v>
       </c>
       <c r="N3">
-        <v>0.343162</v>
+        <v>0.013091</v>
       </c>
       <c r="O3">
-        <v>0.1989201935628975</v>
+        <v>0.009383872870779821</v>
       </c>
       <c r="P3">
-        <v>0.142031078947314</v>
+        <v>0.006275544885653829</v>
       </c>
       <c r="Q3">
-        <v>0.3281146322683334</v>
+        <v>0.0105343604275</v>
       </c>
       <c r="R3">
-        <v>1.96868779361</v>
+        <v>0.063206162565</v>
       </c>
       <c r="S3">
-        <v>0.02915714021606806</v>
+        <v>0.001289606464700939</v>
       </c>
       <c r="T3">
-        <v>0.02439714007228909</v>
+        <v>0.0009932537671870237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>14.172296</v>
       </c>
       <c r="I4">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J4">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6909810000000002</v>
+        <v>0.690981</v>
       </c>
       <c r="N4">
         <v>2.072943</v>
       </c>
       <c r="O4">
-        <v>0.8010798064371025</v>
+        <v>0.9906161271292202</v>
       </c>
       <c r="P4">
-        <v>0.8579689210526861</v>
+        <v>0.993724455114346</v>
       </c>
       <c r="Q4">
-        <v>3.264262420792001</v>
+        <v>3.264262420791999</v>
       </c>
       <c r="R4">
         <v>29.378361787128</v>
       </c>
       <c r="S4">
-        <v>0.2900710536652885</v>
+        <v>0.3996079258257084</v>
       </c>
       <c r="T4">
-        <v>0.364073983666369</v>
+        <v>0.4616665105849427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>14.172296</v>
       </c>
       <c r="I5">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J5">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.171581</v>
+        <v>0.0065455</v>
       </c>
       <c r="N5">
-        <v>0.343162</v>
+        <v>0.013091</v>
       </c>
       <c r="O5">
-        <v>0.1989201935628975</v>
+        <v>0.009383872870779821</v>
       </c>
       <c r="P5">
-        <v>0.142031078947314</v>
+        <v>0.006275544885653829</v>
       </c>
       <c r="Q5">
-        <v>0.8105655733253333</v>
+        <v>0.03092158782266666</v>
       </c>
       <c r="R5">
-        <v>4.863393439952</v>
+        <v>0.185529526936</v>
       </c>
       <c r="S5">
-        <v>0.07202901593378667</v>
+        <v>0.003785391607717397</v>
       </c>
       <c r="T5">
-        <v>0.06027003944774097</v>
+        <v>0.002915505293714051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H6">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I6">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J6">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6909810000000002</v>
+        <v>0.690981</v>
       </c>
       <c r="N6">
         <v>2.072943</v>
       </c>
       <c r="O6">
-        <v>0.8010798064371025</v>
+        <v>0.9906161271292202</v>
       </c>
       <c r="P6">
-        <v>0.8579689210526861</v>
+        <v>0.993724455114346</v>
       </c>
       <c r="Q6">
-        <v>0.2347467448030001</v>
+        <v>0.3291239240339999</v>
       </c>
       <c r="R6">
-        <v>2.112720703227001</v>
+        <v>2.962115316306</v>
       </c>
       <c r="S6">
-        <v>0.02086022103363292</v>
+        <v>0.04029104026230043</v>
       </c>
       <c r="T6">
-        <v>0.02618208082437334</v>
+        <v>0.04654818576808367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H7">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I7">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J7">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.171581</v>
+        <v>0.0065455</v>
       </c>
       <c r="N7">
-        <v>0.343162</v>
+        <v>0.013091</v>
       </c>
       <c r="O7">
-        <v>0.1989201935628975</v>
+        <v>0.009383872870779821</v>
       </c>
       <c r="P7">
-        <v>0.142031078947314</v>
+        <v>0.006275544885653829</v>
       </c>
       <c r="Q7">
-        <v>0.05829115593633334</v>
+        <v>0.003117713287</v>
       </c>
       <c r="R7">
-        <v>0.3497469356180001</v>
+        <v>0.018706279722</v>
       </c>
       <c r="S7">
-        <v>0.005179907385545724</v>
+        <v>0.0003816675191313328</v>
       </c>
       <c r="T7">
-        <v>0.004334270271712056</v>
+        <v>0.0002939599882341113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H8">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I8">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J8">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6909810000000002</v>
+        <v>0.690981</v>
       </c>
       <c r="N8">
         <v>2.072943</v>
       </c>
       <c r="O8">
-        <v>0.8010798064371025</v>
+        <v>0.9906161271292202</v>
       </c>
       <c r="P8">
-        <v>0.8579689210526861</v>
+        <v>0.993724455114346</v>
       </c>
       <c r="Q8">
-        <v>3.966950596711501</v>
+        <v>3.197322484782</v>
       </c>
       <c r="R8">
-        <v>23.801703580269</v>
+        <v>19.183934908692</v>
       </c>
       <c r="S8">
-        <v>0.3525137967146216</v>
+        <v>0.3914132020150622</v>
       </c>
       <c r="T8">
-        <v>0.2949647466153609</v>
+        <v>0.3014661046370863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H9">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I9">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J9">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.171581</v>
+        <v>0.0065455</v>
       </c>
       <c r="N9">
-        <v>0.343162</v>
+        <v>0.013091</v>
       </c>
       <c r="O9">
-        <v>0.1989201935628975</v>
+        <v>0.009383872870779821</v>
       </c>
       <c r="P9">
-        <v>0.142031078947314</v>
+        <v>0.006275544885653829</v>
       </c>
       <c r="Q9">
-        <v>0.9850536416115</v>
+        <v>0.030287481601</v>
       </c>
       <c r="R9">
-        <v>3.940214566446</v>
+        <v>0.121149926404</v>
       </c>
       <c r="S9">
-        <v>0.0875344904622435</v>
+        <v>0.003707764922319991</v>
       </c>
       <c r="T9">
-        <v>0.04882946244929092</v>
+        <v>0.001903811525837467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H10">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I10">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J10">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6909810000000002</v>
+        <v>0.690981</v>
       </c>
       <c r="N10">
         <v>2.072943</v>
       </c>
       <c r="O10">
-        <v>0.8010798064371025</v>
+        <v>0.9906161271292202</v>
       </c>
       <c r="P10">
-        <v>0.8579689210526861</v>
+        <v>0.993724455114346</v>
       </c>
       <c r="Q10">
-        <v>0.2274836131850001</v>
+        <v>0.18923205666</v>
       </c>
       <c r="R10">
-        <v>2.047352518665</v>
+        <v>1.70308850994</v>
       </c>
       <c r="S10">
-        <v>0.02021479981139192</v>
+        <v>0.02316560984189757</v>
       </c>
       <c r="T10">
-        <v>0.02537199973370636</v>
+        <v>0.02676319855063549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H11">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I11">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J11">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.171581</v>
+        <v>0.0065455</v>
       </c>
       <c r="N11">
-        <v>0.343162</v>
+        <v>0.013091</v>
       </c>
       <c r="O11">
-        <v>0.1989201935628975</v>
+        <v>0.009383872870779821</v>
       </c>
       <c r="P11">
-        <v>0.142031078947314</v>
+        <v>0.006275544885653829</v>
       </c>
       <c r="Q11">
-        <v>0.05648761085166667</v>
+        <v>0.00179255063</v>
       </c>
       <c r="R11">
-        <v>0.3389256651100001</v>
+        <v>0.01075530378</v>
       </c>
       <c r="S11">
-        <v>0.005019639565253512</v>
+        <v>0.0002194423569101618</v>
       </c>
       <c r="T11">
-        <v>0.004200166706280945</v>
+        <v>0.0001690143106811761</v>
       </c>
     </row>
   </sheetData>
